--- a/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7546" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7546" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3790,6 +3790,10 @@
   </si>
   <si>
     <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4798,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6137,7 +6141,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>828</v>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7546" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7552" uniqueCount="845">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3795,6 +3795,17 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4800,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4899,25 +4910,19 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>769</v>
+      <c r="D3" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>844</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>792</v>
-      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -4935,27 +4940,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>792</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="7"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>772</v>
       </c>
@@ -4965,12 +4974,18 @@
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -4991,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5010,13 +5025,13 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5030,7 +5045,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="3" t="s">
         <v>797</v>
       </c>
@@ -5038,38 +5053,22 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>804</v>
-      </c>
+      <c r="D8" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="N8" s="17"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>765</v>
       </c>
@@ -5079,22 +5078,38 @@
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="16"/>
+      <c r="H9" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="N9" s="17"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="3" t="s">
         <v>775</v>
       </c>
@@ -5104,18 +5119,12 @@
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D10" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5131,25 +5140,25 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
@@ -5164,10 +5173,10 @@
         <v>795</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>2</v>
@@ -5193,17 +5202,15 @@
         <v>795</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -5221,19 +5228,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -5252,19 +5259,21 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -5284,17 +5293,15 @@
         <v>795</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -5318,15 +5325,15 @@
         <v>635</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="I17" s="19"/>
+        <v>814</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -5349,13 +5356,13 @@
         <v>635</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -5380,12 +5387,14 @@
         <v>635</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>820</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -5408,10 +5417,10 @@
         <v>795</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>2</v>
@@ -5440,14 +5449,12 @@
         <v>555</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>821</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -5456,7 +5463,7 @@
       <c r="N21" s="20"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>787</v>
       </c>
@@ -5471,13 +5478,13 @@
         <v>555</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>822</v>
+      <c r="H22" s="11" t="s">
+        <v>821</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
@@ -5487,7 +5494,7 @@
       <c r="N22" s="20"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="14.25">
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5498,12 +5505,14 @@
         <v>555</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>822</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -5523,7 +5532,7 @@
         <v>555</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>2</v>
@@ -5545,7 +5554,7 @@
         <v>795</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>17</v>
@@ -5570,17 +5579,15 @@
         <v>795</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="11"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -5600,12 +5607,14 @@
         <v>626</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>807</v>
+      </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -5625,7 +5634,7 @@
         <v>626</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>2</v>
@@ -5650,12 +5659,12 @@
         <v>626</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -5672,15 +5681,15 @@
         <v>795</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -5689,16 +5698,22 @@
       <c r="N30" s="20"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -5708,54 +5723,48 @@
       <c r="N31" s="20"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15">
       <c r="C32" s="5">
         <v>31</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="16"/>
+      <c r="D32" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
+      <c r="F33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15">
@@ -5766,18 +5775,16 @@
         <v>795</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="I34" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -5799,7 +5806,7 @@
         <v>624</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>816</v>
@@ -5823,13 +5830,15 @@
         <v>623</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>174</v>
+        <v>624</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="I36" s="11"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -5845,20 +5854,16 @@
         <v>795</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="11">
-        <v>2</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -5877,13 +5882,17 @@
         <v>626</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>183</v>
+        <v>627</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>814</v>
+      </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -5899,18 +5908,16 @@
         <v>795</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="I39" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
@@ -5929,15 +5936,15 @@
         <v>635</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="I40" s="19"/>
+        <v>814</v>
+      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -5956,13 +5963,15 @@
         <v>635</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -5978,13 +5987,13 @@
         <v>795</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -6009,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -6025,15 +6034,17 @@
         <v>43</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="F44" s="19">
-        <v>2</v>
-      </c>
-      <c r="G44" s="19"/>
+        <v>621</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="19"/>
@@ -6047,17 +6058,15 @@
         <v>44</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F45" s="19">
+        <v>2</v>
+      </c>
+      <c r="G45" s="19"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="19"/>
@@ -6075,7 +6084,7 @@
         <v>795</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>99</v>
@@ -6084,7 +6093,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="11"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -6092,43 +6101,43 @@
       <c r="N46" s="20"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="3:15" ht="15">
+    <row r="47" spans="3:15">
       <c r="C47" s="5">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="7"/>
+      <c r="D47" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" ht="15">
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>828</v>
-      </c>
+      <c r="D48" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>830</v>
-      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -6141,7 +6150,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>828</v>
@@ -6149,10 +6158,10 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6161,73 +6170,73 @@
       <c r="N49" s="7"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:15" ht="15">
+    <row r="50" spans="3:15">
       <c r="C50" s="5">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="20"/>
+      <c r="D50" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="7"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" ht="15">
       <c r="C51" s="5">
         <v>50</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="16"/>
+      <c r="D51" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="20"/>
+      <c r="F52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="16"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15">
@@ -6238,10 +6247,10 @@
         <v>795</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>2</v>
@@ -6263,17 +6272,15 @@
         <v>795</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
@@ -6287,19 +6294,19 @@
         <v>54</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -6320,12 +6327,14 @@
         <v>626</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
@@ -6339,19 +6348,19 @@
         <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -6373,7 +6382,7 @@
         <v>17</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -6389,15 +6398,17 @@
         <v>58</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="F59" s="19">
-        <v>2</v>
-      </c>
-      <c r="G59" s="19"/>
+        <v>621</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="19"/>
@@ -6411,21 +6422,17 @@
         <v>59</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="I60" s="19"/>
+        <v>756</v>
+      </c>
+      <c r="F60" s="19">
+        <v>2</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -6438,19 +6445,19 @@
         <v>60</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -6465,19 +6472,21 @@
         <v>61</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
@@ -6493,17 +6502,15 @@
         <v>795</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
@@ -6523,15 +6530,15 @@
         <v>635</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="I64" s="19"/>
+        <v>836</v>
+      </c>
+      <c r="I64" s="11"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
@@ -6550,12 +6557,14 @@
         <v>635</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -6572,17 +6581,15 @@
         <v>795</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" s="11"/>
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
@@ -6602,12 +6609,14 @@
         <v>626</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>807</v>
+      </c>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
@@ -6627,7 +6636,7 @@
         <v>626</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>2</v>
@@ -6652,12 +6661,12 @@
         <v>626</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="5"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
@@ -6674,15 +6683,15 @@
         <v>795</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="11"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
@@ -6691,16 +6700,22 @@
       <c r="N70" s="20"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="3:15" ht="15">
+    <row r="71" spans="3:15">
       <c r="C71" s="5">
         <v>70</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="D71" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="11"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -6710,54 +6725,48 @@
       <c r="N71" s="20"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" ht="15">
       <c r="C72" s="5">
         <v>71</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="16"/>
+      <c r="D72" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="3:15">
       <c r="C73" s="5">
         <v>72</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="20"/>
+      <c r="F73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="16"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="3:15">
@@ -6768,18 +6777,16 @@
         <v>795</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>838</v>
+        <v>80</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="I74" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
@@ -6801,7 +6808,7 @@
         <v>838</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>834</v>
@@ -6825,13 +6832,15 @@
         <v>623</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>174</v>
+        <v>838</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="I76" s="11"/>
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
@@ -6847,20 +6856,16 @@
         <v>795</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="11">
-        <v>2</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
@@ -6879,13 +6884,17 @@
         <v>626</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>99</v>
+        <v>627</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="H78" s="11">
+        <v>2</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>836</v>
+      </c>
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
@@ -6901,16 +6910,16 @@
         <v>795</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>839</v>
+        <v>99</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>840</v>
+        <v>2</v>
       </c>
       <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
@@ -6918,71 +6927,71 @@
       <c r="N79" s="20"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="3:15" ht="15">
+    <row r="80" spans="3:15">
       <c r="C80" s="5">
         <v>79</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="D80" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>840</v>
+      </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="7"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:14" ht="15">
       <c r="C81" s="5">
         <v>80</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="D81" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="16"/>
+      <c r="N81" s="7"/>
     </row>
     <row r="82" spans="3:14">
       <c r="C82" s="5">
         <v>81</v>
       </c>
-      <c r="D82" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E82" s="19" t="s">
+      <c r="D82" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="20"/>
+      <c r="F82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="16"/>
     </row>
     <row r="83" spans="3:14">
       <c r="C83" s="5">
@@ -6992,18 +7001,16 @@
         <v>795</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="I83" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
       <c r="L83" s="19"/>
@@ -7021,13 +7028,15 @@
         <v>623</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="I84" s="11"/>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
@@ -7045,15 +7054,13 @@
         <v>623</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>624</v>
+        <v>184</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="I85" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -7071,13 +7078,15 @@
         <v>623</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="11"/>
-      <c r="I86" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="I86" s="11"/>
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
@@ -7095,13 +7104,13 @@
         <v>623</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G87" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
@@ -7112,25 +7121,25 @@
       <c r="C88" s="5">
         <v>87</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="5" t="s">
+      <c r="E88" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="16"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="20"/>
     </row>
     <row r="89" spans="3:14">
       <c r="C89" s="5">
@@ -7143,7 +7152,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>2</v>
@@ -7161,28 +7170,26 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>819</v>
+        <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I90" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="3:14" ht="14.25">
+    <row r="91" spans="3:14">
       <c r="C91" s="5">
         <v>90</v>
       </c>
@@ -7193,12 +7200,14 @@
         <v>819</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>813</v>
+      </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -7206,23 +7215,23 @@
       <c r="M91" s="5"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="3:14">
+    <row r="92" spans="3:14" ht="14.25">
       <c r="C92" s="5">
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>585</v>
+      <c r="E92" s="11" t="s">
+        <v>819</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="11"/>
+      <c r="H92" s="21"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -7237,26 +7246,64 @@
       <c r="D93" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>819</v>
+      <c r="E93" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="16"/>
     </row>
+    <row r="94" spans="3:14">
+      <c r="C94" s="5">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="16"/>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="5">
+        <v>94</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N93">
+  <conditionalFormatting sqref="N2:N94">
     <cfRule type="cellIs" dxfId="7" priority="67" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7264,7 +7311,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N93">
+  <conditionalFormatting sqref="N89:N94">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7272,7 +7319,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N93">
+  <conditionalFormatting sqref="N89:N94">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7280,7 +7327,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N93">
+  <conditionalFormatting sqref="N89:N94">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7289,21 +7336,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G91:G93 G2:G89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G94 G2:G90">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72:D79 D10:D30 D51:D70 D3:D4 D32:D46 D81:D89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D80 D11:D31 D52:D71 D3:D5 D33:D47 D82:D90 D95">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E46 E50:E93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E95 E2:E47">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F94">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1"/>
+    <hyperlink ref="H23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.50_ToAddAnAreaInTheTreeForNewView.xlsx
@@ -3664,10 +3664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3806,6 +3802,10 @@
   <si>
     <t>$Delete_File_Path$</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4813,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4911,13 +4911,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>843</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>844</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -5006,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5031,7 +5031,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5095,16 +5095,16 @@
         <v>806</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="2"/>
@@ -5120,7 +5120,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -5271,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -5331,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="19"/>
@@ -5362,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -5484,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
@@ -5511,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -5613,7 +5613,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -5728,7 +5728,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="19"/>
@@ -5809,7 +5809,7 @@
         <v>59</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="19"/>
@@ -5836,7 +5836,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="19"/>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -5942,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="19"/>
@@ -5969,7 +5969,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
@@ -6058,7 +6058,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>756</v>
@@ -6131,7 +6131,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -6150,18 +6150,18 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>829</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6175,18 +6175,18 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6200,7 +6200,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -6306,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -6333,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
@@ -6422,7 +6422,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>756</v>
@@ -6457,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
@@ -6484,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -6536,7 +6536,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="19"/>
@@ -6563,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -6615,7 +6615,7 @@
         <v>56</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
@@ -6730,7 +6730,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="19"/>
@@ -6805,13 +6805,13 @@
         <v>623</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="19"/>
@@ -6832,13 +6832,13 @@
         <v>623</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>56</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="19"/>
@@ -6893,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
@@ -6938,10 +6938,10 @@
         <v>623</v>
       </c>
       <c r="F80" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="G80" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>840</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -7034,7 +7034,7 @@
         <v>56</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="19"/>
@@ -7084,7 +7084,7 @@
         <v>56</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="19"/>
@@ -7194,10 +7194,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>578</v>
@@ -7206,7 +7206,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -7220,10 +7220,10 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>184</v>
@@ -7244,7 +7244,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>585</v>
@@ -7268,10 +7268,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>99</v>
@@ -7292,13 +7292,13 @@
         <v>94</v>
       </c>
       <c r="D95" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="F95" s="19" t="s">
         <v>843</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>844</v>
       </c>
     </row>
   </sheetData>
